--- a/QA_LEGEND_PROJECT/src/main/resources/TestData.xlsx
+++ b/QA_LEGEND_PROJECT/src/main/resources/TestData.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOORA\git\QA_LEGEND_PROJECT\QA_LEGEND_PROJECT\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B122DD-5410-4FA6-8504-AB1AF2837907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE5D325-EEFD-4170-AFBF-E8BC17827562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
-    <sheet name="ProfilePage" sheetId="3" r:id="rId3"/>
+    <sheet name="AddUserPage" sheetId="4" r:id="rId2"/>
+    <sheet name="UsersPage" sheetId="5" r:id="rId3"/>
+    <sheet name="UserManagementPage" sheetId="6" r:id="rId4"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId5"/>
+    <sheet name="ProfilePage" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>User Name</t>
   </si>
@@ -87,6 +90,42 @@
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Commission </t>
+  </si>
+  <si>
+    <t>Search Data</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Expected Role</t>
+  </si>
+  <si>
+    <t>Expected Heading</t>
+  </si>
+  <si>
+    <t>Users Manage users</t>
+  </si>
+  <si>
+    <t>After delete Text</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>Users Tab Status</t>
+  </si>
+  <si>
+    <t>Users Tab Is Enabled</t>
+  </si>
+  <si>
+    <t>User Profile Name</t>
+  </si>
+  <si>
+    <t>Mrs Noora ram</t>
   </si>
 </sst>
 </file>
@@ -463,6 +502,134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DAC686-EBEA-49BD-A1BA-D56F18A92699}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC1098A-A0BB-4144-9108-0939D81027F6}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6E759BA2-5B19-458D-89F3-7AB4B5F0BE48}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05986EF-E262-442A-B137-2A153926E895}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787FDCB6-C262-48A8-B680-E40842392B16}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -522,11 +689,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5236EB-CF37-4CD1-ABA0-1B07722485C2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
